--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS8.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS8.xlsx
@@ -19,7 +19,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="119">
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
   <si>
     <t>Signal_Value_70</t>
   </si>
@@ -138,6 +297,9 @@
     <t>Signal_Value_108</t>
   </si>
   <si>
+    <t>Signal_Value_109</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -210,10 +372,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -574,15 +733,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:CP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:94">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -701,10 +860,172 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:94">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -713,100 +1034,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002175357463568385</v>
+        <v>0.05271178564096717</v>
       </c>
       <c r="E2">
-        <v>5.796484834778905E-05</v>
+        <v>0.01613207241757614</v>
       </c>
       <c r="F2">
-        <v>0.007624939058260664</v>
+        <v>0.07659338657780131</v>
       </c>
       <c r="G2">
-        <v>0.000237470702829088</v>
+        <v>0.001100881891122196</v>
       </c>
       <c r="H2">
-        <v>0.004439755004310025</v>
+        <v>0.00245880584642239</v>
       </c>
       <c r="I2">
-        <v>0.01201371357134147</v>
+        <v>0.02257326061951506</v>
       </c>
       <c r="J2">
-        <v>0.01013668004255825</v>
+        <v>0.04468369302430106</v>
       </c>
       <c r="K2">
-        <v>0.0006480362057082015</v>
+        <v>0.0007580323216065299</v>
       </c>
       <c r="L2">
-        <v>0.0390790612526792</v>
+        <v>0.07344949548046613</v>
       </c>
       <c r="M2">
-        <v>0.04563585076430483</v>
+        <v>0.003280634251787089</v>
       </c>
       <c r="N2">
-        <v>0.0140328736426722</v>
+        <v>0.2294995320377461</v>
       </c>
       <c r="O2">
-        <v>0.0005314025159617458</v>
+        <v>0.03431892580987976</v>
       </c>
       <c r="P2">
-        <v>0.03648187042707207</v>
+        <v>0.00245880584642239</v>
       </c>
       <c r="Q2">
-        <v>0.07734066664223575</v>
+        <v>0.03696613083324941</v>
       </c>
       <c r="R2">
-        <v>0.05057147664321567</v>
+        <v>0.01613207241757614</v>
       </c>
       <c r="S2">
-        <v>0.0115842188668803</v>
+        <v>0.03847126448888693</v>
       </c>
       <c r="T2">
-        <v>0.001022390902251214</v>
+        <v>0.004062944449983309</v>
       </c>
       <c r="U2">
-        <v>0.002254319568899062</v>
+        <v>0.07771015198352806</v>
       </c>
       <c r="V2">
-        <v>0.04257140318594835</v>
+        <v>0.00162755642146402</v>
       </c>
       <c r="W2">
-        <v>0.09128829490268262</v>
+        <v>0.04508643534274428</v>
       </c>
       <c r="X2">
-        <v>0.07119669814849375</v>
+        <v>0.05130456296025746</v>
       </c>
       <c r="Y2">
-        <v>0.04811985084591472</v>
+        <v>0.01055213326395984</v>
       </c>
       <c r="Z2">
-        <v>0.02732968124112236</v>
+        <v>0.003654744609022602</v>
       </c>
       <c r="AA2">
-        <v>0.001767318056403566</v>
+        <v>0.02284882074074027</v>
       </c>
       <c r="AB2">
-        <v>0.01521749650137123</v>
+        <v>0.00389764462098102</v>
       </c>
       <c r="AC2">
-        <v>0.0503407401056302</v>
+        <v>0.01025526124008826</v>
       </c>
       <c r="AD2">
-        <v>0.04761727907712276</v>
+        <v>0.0009608336585260225</v>
       </c>
       <c r="AE2">
-        <v>0.04207093500627974</v>
+        <v>0.008259402527021059</v>
       </c>
       <c r="AF2">
-        <v>0.06080090141712553</v>
+        <v>0.02190380948714245</v>
       </c>
       <c r="AG2">
-        <v>0.08784009733572215</v>
+        <v>0.05064767175065458</v>
       </c>
       <c r="AH2">
-        <v>0.07049244417624416</v>
+        <v>0.01962035244392115</v>
       </c>
       <c r="AI2">
-        <v>0.02747881187684286</v>
+        <v>0.01601889499463974</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -823,10 +1144,172 @@
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:94">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -847,108 +1330,270 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001289224615547579</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003125776178831224</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003196181052661299</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0077970677347013</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0203598384920343</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.009580320779047816</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002871428776363856</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.009859349322359018</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.02351881040388879</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.03283433845769444</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0287867614869381</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01225376606851675</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0004808670288031701</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02597785018238064</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.06459935780019635</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.07880235069334723</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0567025144464082</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.02607116862083922</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001545979389801429</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.007548033229334201</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0228918252615336</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03263307381826795</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.04884814586198955</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.08012069902688325</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.1056647074499927</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.08396312834220042</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.03233233600928585</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0009929500279277496</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.009506422353206491</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.03305154894763453</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.05877671363225868</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.07947831335524699</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0.01899838472601416</v>
+      </c>
+      <c r="BL3">
+        <v>0.02031733663552708</v>
+      </c>
+      <c r="BM3">
+        <v>0.00452834693773582</v>
+      </c>
+      <c r="BN3">
+        <v>0.009527085772989921</v>
+      </c>
+      <c r="BO3">
+        <v>0.02582452929081399</v>
+      </c>
+      <c r="BP3">
+        <v>0.01661170301936315</v>
+      </c>
+      <c r="BQ3">
+        <v>0.06141503723168829</v>
+      </c>
+      <c r="BR3">
+        <v>0.006865556306427952</v>
+      </c>
+      <c r="BS3">
+        <v>0.00550088918259059</v>
+      </c>
+      <c r="BT3">
+        <v>0.07036937348952779</v>
+      </c>
+      <c r="BU3">
+        <v>0.00402966792490495</v>
+      </c>
+      <c r="BV3">
+        <v>0.03157540346650922</v>
+      </c>
+      <c r="BW3">
+        <v>0.04503802001681281</v>
+      </c>
+      <c r="BX3">
+        <v>0.01488914941754148</v>
+      </c>
+      <c r="BY3">
+        <v>0.001695063677059845</v>
+      </c>
+      <c r="BZ3">
+        <v>0.04612112679799783</v>
+      </c>
+      <c r="CA3">
+        <v>0.003581929851379787</v>
+      </c>
+      <c r="CB3">
+        <v>0.06083742511392771</v>
+      </c>
+      <c r="CC3">
+        <v>0.1495391554853837</v>
+      </c>
+      <c r="CD3">
+        <v>0.04040504379976375</v>
+      </c>
+      <c r="CE3">
+        <v>0.02237515794365345</v>
+      </c>
+      <c r="CF3">
+        <v>0.002039801008042701</v>
+      </c>
+      <c r="CG3">
+        <v>0.06644347046978445</v>
+      </c>
+      <c r="CH3">
+        <v>0.0002361905720203108</v>
+      </c>
+      <c r="CI3">
+        <v>0.008395459222650378</v>
+      </c>
+      <c r="CJ3">
+        <v>0.01894688315305504</v>
+      </c>
+      <c r="CK3">
+        <v>0.004888562148335717</v>
+      </c>
+      <c r="CL3">
+        <v>0.0267937183640649</v>
+      </c>
+      <c r="CM3">
+        <v>0.03829180156716886</v>
+      </c>
+      <c r="CN3">
+        <v>0.1052095151132985</v>
+      </c>
+      <c r="CO3">
+        <v>0.01887342073257594</v>
+      </c>
+      <c r="CP3">
+        <v>0.04983579156138979</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:94">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -957,100 +1602,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001933530660428762</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7.202143269305316E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.004504412692337436</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002862983267092877</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001053796722225916</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006379571931453329</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002359600521870162</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03242013894390158</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.002084834738865892</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.03445199514764951</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.05115069940700034</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01030415581178742</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002746365539484339</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01095988711902559</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02569650551853386</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.05066068086903726</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.07654084673977185</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0366775429075034</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003033108143070922</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0753463352482879</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.103784203422084</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.07419940304566428</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.04365485989511546</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01304049131818059</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>5.955361109291227E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.006443219498396889</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.006875615774336306</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01861704645260634</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.05834144663792763</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.1052848729207823</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.09627164757475618</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0447251747619954</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1067,10 +1712,172 @@
       <c r="AN4">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0.02645649922160484</v>
+      </c>
+      <c r="BL4">
+        <v>0.0006559417422722372</v>
+      </c>
+      <c r="BM4">
+        <v>0.04808141008647145</v>
+      </c>
+      <c r="BN4">
+        <v>0.003799977949589063</v>
+      </c>
+      <c r="BO4">
+        <v>0.0005596820535214868</v>
+      </c>
+      <c r="BP4">
+        <v>0.02446053842276678</v>
+      </c>
+      <c r="BQ4">
+        <v>0.0470923922646793</v>
+      </c>
+      <c r="BR4">
+        <v>0.07057286544523063</v>
+      </c>
+      <c r="BS4">
+        <v>0.0118035887502407</v>
+      </c>
+      <c r="BT4">
+        <v>0.005253601929811969</v>
+      </c>
+      <c r="BU4">
+        <v>0.04426900308925218</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0.0001775344403669161</v>
+      </c>
+      <c r="BX4">
+        <v>0.1100043705164366</v>
+      </c>
+      <c r="BY4">
+        <v>0.004891012665107702</v>
+      </c>
+      <c r="BZ4">
+        <v>0.00533014441591973</v>
+      </c>
+      <c r="CA4">
+        <v>0.06279617025719078</v>
+      </c>
+      <c r="CB4">
+        <v>0.0003640700795912433</v>
+      </c>
+      <c r="CC4">
+        <v>0.05666802313070263</v>
+      </c>
+      <c r="CD4">
+        <v>0.108159842838049</v>
+      </c>
+      <c r="CE4">
+        <v>0.01154533811153462</v>
+      </c>
+      <c r="CF4">
+        <v>0.01570279398151704</v>
+      </c>
+      <c r="CG4">
+        <v>0.06273782266191515</v>
+      </c>
+      <c r="CH4">
+        <v>0.00469891701767841</v>
+      </c>
+      <c r="CI4">
+        <v>0.1334513942560499</v>
+      </c>
+      <c r="CJ4">
+        <v>0.004226145673491733</v>
+      </c>
+      <c r="CK4">
+        <v>0.00345615291841705</v>
+      </c>
+      <c r="CL4">
+        <v>0.01427267689964449</v>
+      </c>
+      <c r="CM4">
+        <v>0.02763173713657902</v>
+      </c>
+      <c r="CN4">
+        <v>0.03956785525802573</v>
+      </c>
+      <c r="CO4">
+        <v>0.05131249678634162</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:94">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1079,100 +1886,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003141907092772465</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.002280502865507231</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.00347904089869712</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00299822293458733</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.787961754769134E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001917901251745445</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008640994972332911</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001073064124317512</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0105174650518337</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03500739711341556</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03722309499473596</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.003556492137120169</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01195014711893216</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.04010975388375363</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03781203046487368</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.06160040504323594</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05597000697833435</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.003997504805503874</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02020478350826501</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.06861700224774502</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0885609651563127</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.08308210460952109</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.04860506325127973</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.008183350313814413</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0005769588931083594</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.008521732207583271</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.02487410724946417</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.04494359086837774</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.07065204133931852</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.08961671162303549</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0819953135040703</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.04024246387885758</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1189,10 +1996,172 @@
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.03618546294893821</v>
+      </c>
+      <c r="BE5">
+        <v>0.004202639010708953</v>
+      </c>
+      <c r="BF5">
+        <v>0.07396930453391272</v>
+      </c>
+      <c r="BG5">
+        <v>0.003829732260444693</v>
+      </c>
+      <c r="BH5">
+        <v>0.02243360088262977</v>
+      </c>
+      <c r="BI5">
+        <v>0.002178436893019543</v>
+      </c>
+      <c r="BJ5">
+        <v>0.09257630608900121</v>
+      </c>
+      <c r="BK5">
+        <v>0.01090089476224885</v>
+      </c>
+      <c r="BL5">
+        <v>0.02306429471380097</v>
+      </c>
+      <c r="BM5">
+        <v>0.00369950447116338</v>
+      </c>
+      <c r="BN5">
+        <v>0.1399780839949554</v>
+      </c>
+      <c r="BO5">
+        <v>0.0001417331554523509</v>
+      </c>
+      <c r="BP5">
+        <v>0.004309531541392305</v>
+      </c>
+      <c r="BQ5">
+        <v>0.01501345818741033</v>
+      </c>
+      <c r="BR5">
+        <v>0.002434657969236672</v>
+      </c>
+      <c r="BS5">
+        <v>0.04620536056432939</v>
+      </c>
+      <c r="BT5">
+        <v>0.03395429025742005</v>
+      </c>
+      <c r="BU5">
+        <v>0.03612806351575798</v>
+      </c>
+      <c r="BV5">
+        <v>0.09774984498248847</v>
+      </c>
+      <c r="BW5">
+        <v>0.006620564979554793</v>
+      </c>
+      <c r="BX5">
+        <v>0.004191443229151185</v>
+      </c>
+      <c r="BY5">
+        <v>0.05547236027967811</v>
+      </c>
+      <c r="BZ5">
+        <v>0.006212278762421145</v>
+      </c>
+      <c r="CA5">
+        <v>0.05567793424252069</v>
+      </c>
+      <c r="CB5">
+        <v>0.0271601494065102</v>
+      </c>
+      <c r="CC5">
+        <v>0.002128220870823652</v>
+      </c>
+      <c r="CD5">
+        <v>0.03813073941211261</v>
+      </c>
+      <c r="CE5">
+        <v>0.01025649753942778</v>
+      </c>
+      <c r="CF5">
+        <v>0.02747785373805756</v>
+      </c>
+      <c r="CG5">
+        <v>0.07604124471367987</v>
+      </c>
+      <c r="CH5">
+        <v>0.02662426501253918</v>
+      </c>
+      <c r="CI5">
+        <v>0.01505124707921218</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:94">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1216,100 +2185,262 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001248433495616025</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001454574235581336</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.004418118766974771</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01576243578330064</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.00858723249622315</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02086740917145459</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.153533877048737E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003308190325473478</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.008854744546441728</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.00321163447672936</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.04359495034390708</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0520107794258125</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.03057932060964834</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.005424364396111001</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0587290282782298</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.04809978857838162</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.04018808882572329</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0761411956153082</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.02699032999324272</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.005683772655430414</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.05356918164256489</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.102390897214412</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.08205890072672677</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.03889467460905045</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01128981719790904</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0154567805159366</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.03097018070460464</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.02701974908944993</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.03627287963465453</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.06181011342738504</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.08510089787894533</v>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0.02075467394026728</v>
+      </c>
+      <c r="BL6">
+        <v>6.241550403363291E-05</v>
+      </c>
+      <c r="BM6">
+        <v>0.01552160009592884</v>
+      </c>
+      <c r="BN6">
+        <v>0.006106204445064918</v>
+      </c>
+      <c r="BO6">
+        <v>0.04738378979999743</v>
+      </c>
+      <c r="BP6">
+        <v>0.0001116156647350581</v>
+      </c>
+      <c r="BQ6">
+        <v>0.09528671918152984</v>
+      </c>
+      <c r="BR6">
+        <v>0.01236572004802347</v>
+      </c>
+      <c r="BS6">
+        <v>0.02340072647021747</v>
+      </c>
+      <c r="BT6">
+        <v>0.02181471188837059</v>
+      </c>
+      <c r="BU6">
+        <v>0.02326291798276389</v>
+      </c>
+      <c r="BV6">
+        <v>0.01613847359915885</v>
+      </c>
+      <c r="BW6">
+        <v>0.02813409101958671</v>
+      </c>
+      <c r="BX6">
+        <v>0.02638613313160762</v>
+      </c>
+      <c r="BY6">
+        <v>0.002353336193923681</v>
+      </c>
+      <c r="BZ6">
+        <v>0.03419721006980277</v>
+      </c>
+      <c r="CA6">
+        <v>0.02644622835772369</v>
+      </c>
+      <c r="CB6">
+        <v>0.04659579213170399</v>
+      </c>
+      <c r="CC6">
+        <v>0.1061399057706232</v>
+      </c>
+      <c r="CD6">
+        <v>0.01295971912393526</v>
+      </c>
+      <c r="CE6">
+        <v>0.0007801664914535459</v>
+      </c>
+      <c r="CF6">
+        <v>0.0795817456929398</v>
+      </c>
+      <c r="CG6">
+        <v>0.08860292880774867</v>
+      </c>
+      <c r="CH6">
+        <v>0.02594571261923726</v>
+      </c>
+      <c r="CI6">
+        <v>0.03721980311273606</v>
+      </c>
+      <c r="CJ6">
+        <v>0.005769183038666426</v>
+      </c>
+      <c r="CK6">
+        <v>0.01717166383909464</v>
+      </c>
+      <c r="CL6">
+        <v>0.07295792007463593</v>
+      </c>
+      <c r="CM6">
+        <v>0.02752290356176391</v>
+      </c>
+      <c r="CN6">
+        <v>0.04362068140330779</v>
+      </c>
+      <c r="CO6">
+        <v>0.02326291798276389</v>
+      </c>
+      <c r="CP6">
+        <v>0.01214238895665387</v>
       </c>
     </row>
   </sheetData>
@@ -1319,15 +2450,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:CP6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:94">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1446,10 +2577,172 @@
       <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:94">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1458,603 +2751,1413 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.002175357463568385</v>
+        <v>0.05271178564096717</v>
       </c>
       <c r="E2">
-        <v>0.002233322311916174</v>
+        <v>0.06884385805854332</v>
       </c>
       <c r="F2">
-        <v>0.009858261370176839</v>
+        <v>0.1454372446363446</v>
       </c>
       <c r="G2">
-        <v>0.01009573207300593</v>
+        <v>0.1465381265274668</v>
       </c>
       <c r="H2">
-        <v>0.01453548707731595</v>
+        <v>0.1489969323738892</v>
       </c>
       <c r="I2">
-        <v>0.02654920064865742</v>
+        <v>0.1715701929934043</v>
       </c>
       <c r="J2">
-        <v>0.03668588069121567</v>
+        <v>0.2162538860177053</v>
       </c>
       <c r="K2">
-        <v>0.03733391689692387</v>
+        <v>0.2170119183393119</v>
       </c>
       <c r="L2">
-        <v>0.07641297814960307</v>
+        <v>0.290461413819778</v>
       </c>
       <c r="M2">
-        <v>0.1220488289139079</v>
+        <v>0.2937420480715651</v>
       </c>
       <c r="N2">
-        <v>0.1360817025565801</v>
+        <v>0.5232415801093111</v>
       </c>
       <c r="O2">
-        <v>0.1366131050725419</v>
+        <v>0.5575605059191908</v>
       </c>
       <c r="P2">
-        <v>0.1730949754996139</v>
+        <v>0.5600193117656133</v>
       </c>
       <c r="Q2">
-        <v>0.2504356421418497</v>
+        <v>0.5969854425988627</v>
       </c>
       <c r="R2">
-        <v>0.3010071187850654</v>
+        <v>0.6131175150164389</v>
       </c>
       <c r="S2">
-        <v>0.3125913376519457</v>
+        <v>0.6515887795053258</v>
       </c>
       <c r="T2">
-        <v>0.3136137285541969</v>
+        <v>0.6556517239553091</v>
       </c>
       <c r="U2">
-        <v>0.3158680481230959</v>
+        <v>0.7333618759388372</v>
       </c>
       <c r="V2">
-        <v>0.3584394513090443</v>
+        <v>0.7349894323603012</v>
       </c>
       <c r="W2">
-        <v>0.449727746211727</v>
+        <v>0.7800758677030455</v>
       </c>
       <c r="X2">
-        <v>0.5209244443602207</v>
+        <v>0.8313804306633029</v>
       </c>
       <c r="Y2">
-        <v>0.5690442952061354</v>
+        <v>0.8419325639272628</v>
       </c>
       <c r="Z2">
-        <v>0.5963739764472578</v>
+        <v>0.8455873085362854</v>
       </c>
       <c r="AA2">
-        <v>0.5981412945036613</v>
+        <v>0.8684361292770256</v>
       </c>
       <c r="AB2">
-        <v>0.6133587910050325</v>
+        <v>0.8723337738980066</v>
       </c>
       <c r="AC2">
-        <v>0.6636995311106627</v>
+        <v>0.8825890351380948</v>
       </c>
       <c r="AD2">
-        <v>0.7113168101877855</v>
+        <v>0.8835498687966209</v>
       </c>
       <c r="AE2">
-        <v>0.7533877451940653</v>
+        <v>0.891809271323642</v>
       </c>
       <c r="AF2">
-        <v>0.8141886466111908</v>
+        <v>0.9137130808107844</v>
       </c>
       <c r="AG2">
-        <v>0.902028743946913</v>
+        <v>0.9643607525614389</v>
       </c>
       <c r="AH2">
-        <v>0.9725211881231571</v>
+        <v>0.9839811050053601</v>
       </c>
       <c r="AI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94">
+      <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0.01899838472601416</v>
+      </c>
+      <c r="BL3">
+        <v>0.03931572136154124</v>
+      </c>
+      <c r="BM3">
+        <v>0.04384406829927706</v>
+      </c>
+      <c r="BN3">
+        <v>0.05337115407226698</v>
+      </c>
+      <c r="BO3">
+        <v>0.07919568336308097</v>
+      </c>
+      <c r="BP3">
+        <v>0.09580738638244413</v>
+      </c>
+      <c r="BQ3">
+        <v>0.1572224236141324</v>
+      </c>
+      <c r="BR3">
+        <v>0.1640879799205604</v>
+      </c>
+      <c r="BS3">
+        <v>0.169588869103151</v>
+      </c>
+      <c r="BT3">
+        <v>0.2399582425926788</v>
+      </c>
+      <c r="BU3">
+        <v>0.2439879105175837</v>
+      </c>
+      <c r="BV3">
+        <v>0.275563313984093</v>
+      </c>
+      <c r="BW3">
+        <v>0.3206013340009057</v>
+      </c>
+      <c r="BX3">
+        <v>0.3354904834184472</v>
+      </c>
+      <c r="BY3">
+        <v>0.3371855470955071</v>
+      </c>
+      <c r="BZ3">
+        <v>0.3833066738935049</v>
+      </c>
+      <c r="CA3">
+        <v>0.3868886037448847</v>
+      </c>
+      <c r="CB3">
+        <v>0.4477260288588124</v>
+      </c>
+      <c r="CC3">
+        <v>0.5972651843441961</v>
+      </c>
+      <c r="CD3">
+        <v>0.6376702281439598</v>
+      </c>
+      <c r="CE3">
+        <v>0.6600453860876132</v>
+      </c>
+      <c r="CF3">
+        <v>0.6620851870956559</v>
+      </c>
+      <c r="CG3">
+        <v>0.7285286575654404</v>
+      </c>
+      <c r="CH3">
+        <v>0.7287648481374607</v>
+      </c>
+      <c r="CI3">
+        <v>0.7371603073601111</v>
+      </c>
+      <c r="CJ3">
+        <v>0.7561071905131661</v>
+      </c>
+      <c r="CK3">
+        <v>0.7609957526615018</v>
+      </c>
+      <c r="CL3">
+        <v>0.7877894710255666</v>
+      </c>
+      <c r="CM3">
+        <v>0.8260812725927354</v>
+      </c>
+      <c r="CN3">
+        <v>0.9312907877060339</v>
+      </c>
+      <c r="CO3">
+        <v>0.9501642084386098</v>
+      </c>
+      <c r="CP3">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0.02645649922160484</v>
+      </c>
+      <c r="BL4">
+        <v>0.02711244096387707</v>
+      </c>
+      <c r="BM4">
+        <v>0.07519385105034852</v>
+      </c>
+      <c r="BN4">
+        <v>0.07899382899993758</v>
+      </c>
+      <c r="BO4">
+        <v>0.07955351105345906</v>
+      </c>
+      <c r="BP4">
+        <v>0.1040140494762258</v>
+      </c>
+      <c r="BQ4">
+        <v>0.1511064417409052</v>
+      </c>
+      <c r="BR4">
+        <v>0.2216793071861358</v>
+      </c>
+      <c r="BS4">
+        <v>0.2334828959363765</v>
+      </c>
+      <c r="BT4">
+        <v>0.2387364978661884</v>
+      </c>
+      <c r="BU4">
+        <v>0.2830055009554406</v>
+      </c>
+      <c r="BV4">
+        <v>0.2830055009554406</v>
+      </c>
+      <c r="BW4">
+        <v>0.2831830353958075</v>
+      </c>
+      <c r="BX4">
+        <v>0.3931874059122441</v>
+      </c>
+      <c r="BY4">
+        <v>0.3980784185773518</v>
+      </c>
+      <c r="BZ4">
+        <v>0.4034085629932715</v>
+      </c>
+      <c r="CA4">
+        <v>0.4662047332504623</v>
+      </c>
+      <c r="CB4">
+        <v>0.4665688033300535</v>
+      </c>
+      <c r="CC4">
+        <v>0.5232368264607562</v>
+      </c>
+      <c r="CD4">
+        <v>0.6313966692988052</v>
+      </c>
+      <c r="CE4">
+        <v>0.6429420074103398</v>
+      </c>
+      <c r="CF4">
+        <v>0.6586448013918569</v>
+      </c>
+      <c r="CG4">
+        <v>0.7213826240537721</v>
+      </c>
+      <c r="CH4">
+        <v>0.7260815410714505</v>
+      </c>
+      <c r="CI4">
+        <v>0.8595329353275004</v>
+      </c>
+      <c r="CJ4">
+        <v>0.8637590810009922</v>
+      </c>
+      <c r="CK4">
+        <v>0.8672152339194092</v>
+      </c>
+      <c r="CL4">
+        <v>0.8814879108190538</v>
+      </c>
+      <c r="CM4">
+        <v>0.9091196479556327</v>
+      </c>
+      <c r="CN4">
+        <v>0.9486875032136585</v>
+      </c>
+      <c r="CO4">
         <v>1</v>
       </c>
-      <c r="AJ2">
+      <c r="CP4">
         <v>1</v>
       </c>
-      <c r="AK2">
+    </row>
+    <row r="5" spans="1:94">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.03618546294893821</v>
+      </c>
+      <c r="BE5">
+        <v>0.04038810195964716</v>
+      </c>
+      <c r="BF5">
+        <v>0.1143574064935599</v>
+      </c>
+      <c r="BG5">
+        <v>0.1181871387540046</v>
+      </c>
+      <c r="BH5">
+        <v>0.1406207396366344</v>
+      </c>
+      <c r="BI5">
+        <v>0.1427991765296539</v>
+      </c>
+      <c r="BJ5">
+        <v>0.2353754826186551</v>
+      </c>
+      <c r="BK5">
+        <v>0.2462763773809039</v>
+      </c>
+      <c r="BL5">
+        <v>0.2693406720947049</v>
+      </c>
+      <c r="BM5">
+        <v>0.2730401765658683</v>
+      </c>
+      <c r="BN5">
+        <v>0.4130182605608237</v>
+      </c>
+      <c r="BO5">
+        <v>0.413159993716276</v>
+      </c>
+      <c r="BP5">
+        <v>0.4174695252576683</v>
+      </c>
+      <c r="BQ5">
+        <v>0.4324829834450787</v>
+      </c>
+      <c r="BR5">
+        <v>0.4349176414143154</v>
+      </c>
+      <c r="BS5">
+        <v>0.4811230019786448</v>
+      </c>
+      <c r="BT5">
+        <v>0.5150772922360648</v>
+      </c>
+      <c r="BU5">
+        <v>0.5512053557518228</v>
+      </c>
+      <c r="BV5">
+        <v>0.6489552007343113</v>
+      </c>
+      <c r="BW5">
+        <v>0.6555757657138661</v>
+      </c>
+      <c r="BX5">
+        <v>0.6597672089430173</v>
+      </c>
+      <c r="BY5">
+        <v>0.7152395692226954</v>
+      </c>
+      <c r="BZ5">
+        <v>0.7214518479851165</v>
+      </c>
+      <c r="CA5">
+        <v>0.7771297822276372</v>
+      </c>
+      <c r="CB5">
+        <v>0.8042899316341474</v>
+      </c>
+      <c r="CC5">
+        <v>0.8064181525049711</v>
+      </c>
+      <c r="CD5">
+        <v>0.8445488919170837</v>
+      </c>
+      <c r="CE5">
+        <v>0.8548053894565115</v>
+      </c>
+      <c r="CF5">
+        <v>0.8822832431945691</v>
+      </c>
+      <c r="CG5">
+        <v>0.958324487908249</v>
+      </c>
+      <c r="CH5">
+        <v>0.9849487529207882</v>
+      </c>
+      <c r="CI5">
         <v>1</v>
       </c>
-      <c r="AL2">
+      <c r="CJ5">
         <v>1</v>
       </c>
-      <c r="AM2">
+      <c r="CK5">
         <v>1</v>
       </c>
-      <c r="AN2">
+      <c r="CL5">
         <v>1</v>
       </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.001289224615547579</v>
-      </c>
-      <c r="I3">
-        <v>0.004415000794378803</v>
-      </c>
-      <c r="J3">
-        <v>0.004734618899644933</v>
-      </c>
-      <c r="K3">
-        <v>0.01253168663434623</v>
-      </c>
-      <c r="L3">
-        <v>0.03289152512638054</v>
-      </c>
-      <c r="M3">
-        <v>0.04247184590542835</v>
-      </c>
-      <c r="N3">
-        <v>0.04275898878306474</v>
-      </c>
-      <c r="O3">
-        <v>0.05261833810542375</v>
-      </c>
-      <c r="P3">
-        <v>0.07613714850931255</v>
-      </c>
-      <c r="Q3">
-        <v>0.108971486967007</v>
-      </c>
-      <c r="R3">
-        <v>0.1377582484539451</v>
-      </c>
-      <c r="S3">
-        <v>0.1500120145224618</v>
-      </c>
-      <c r="T3">
-        <v>0.150492881551265</v>
-      </c>
-      <c r="U3">
-        <v>0.1764707317336456</v>
-      </c>
-      <c r="V3">
-        <v>0.241070089533842</v>
-      </c>
-      <c r="W3">
-        <v>0.3198724402271892</v>
-      </c>
-      <c r="X3">
-        <v>0.3765749546735974</v>
-      </c>
-      <c r="Y3">
-        <v>0.4026461232944367</v>
-      </c>
-      <c r="Z3">
-        <v>0.4041921026842381</v>
-      </c>
-      <c r="AA3">
-        <v>0.4117401359135723</v>
-      </c>
-      <c r="AB3">
-        <v>0.4346319611751059</v>
-      </c>
-      <c r="AC3">
-        <v>0.4672650349933739</v>
-      </c>
-      <c r="AD3">
-        <v>0.5161131808553635</v>
-      </c>
-      <c r="AE3">
-        <v>0.5962338798822467</v>
-      </c>
-      <c r="AF3">
-        <v>0.7018985873322394</v>
-      </c>
-      <c r="AG3">
-        <v>0.7858617156744399</v>
-      </c>
-      <c r="AH3">
-        <v>0.8181940516837257</v>
-      </c>
-      <c r="AI3">
-        <v>0.8191870017116535</v>
-      </c>
-      <c r="AJ3">
-        <v>0.82869342406486</v>
-      </c>
-      <c r="AK3">
-        <v>0.8617449730124945</v>
-      </c>
-      <c r="AL3">
-        <v>0.9205216866447532</v>
-      </c>
-      <c r="AM3">
+    <row r="6" spans="1:94">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0.02075467394026728</v>
+      </c>
+      <c r="BL6">
+        <v>0.02081708944430091</v>
+      </c>
+      <c r="BM6">
+        <v>0.03633868954022974</v>
+      </c>
+      <c r="BN6">
+        <v>0.04244489398529466</v>
+      </c>
+      <c r="BO6">
+        <v>0.0898286837852921</v>
+      </c>
+      <c r="BP6">
+        <v>0.08994029945002716</v>
+      </c>
+      <c r="BQ6">
+        <v>0.185227018631557</v>
+      </c>
+      <c r="BR6">
+        <v>0.1975927386795805</v>
+      </c>
+      <c r="BS6">
+        <v>0.220993465149798</v>
+      </c>
+      <c r="BT6">
+        <v>0.2428081770381685</v>
+      </c>
+      <c r="BU6">
+        <v>0.2660710950209324</v>
+      </c>
+      <c r="BV6">
+        <v>0.2822095686200913</v>
+      </c>
+      <c r="BW6">
+        <v>0.310343659639678</v>
+      </c>
+      <c r="BX6">
+        <v>0.3367297927712856</v>
+      </c>
+      <c r="BY6">
+        <v>0.3390831289652093</v>
+      </c>
+      <c r="BZ6">
+        <v>0.373280339035012</v>
+      </c>
+      <c r="CA6">
+        <v>0.3997265673927357</v>
+      </c>
+      <c r="CB6">
+        <v>0.4463223595244397</v>
+      </c>
+      <c r="CC6">
+        <v>0.5524622652950629</v>
+      </c>
+      <c r="CD6">
+        <v>0.5654219844189982</v>
+      </c>
+      <c r="CE6">
+        <v>0.5662021509104517</v>
+      </c>
+      <c r="CF6">
+        <v>0.6457838966033915</v>
+      </c>
+      <c r="CG6">
+        <v>0.7343868254111402</v>
+      </c>
+      <c r="CH6">
+        <v>0.7603325380303775</v>
+      </c>
+      <c r="CI6">
+        <v>0.7975523411431136</v>
+      </c>
+      <c r="CJ6">
+        <v>0.80332152418178</v>
+      </c>
+      <c r="CK6">
+        <v>0.8204931880208747</v>
+      </c>
+      <c r="CL6">
+        <v>0.8934511080955106</v>
+      </c>
+      <c r="CM6">
+        <v>0.9209740116572745</v>
+      </c>
+      <c r="CN6">
+        <v>0.9645946930605823</v>
+      </c>
+      <c r="CO6">
+        <v>0.9878576110433462</v>
+      </c>
+      <c r="CP6">
         <v>1</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.001933530660428762</v>
-      </c>
-      <c r="E4">
-        <v>0.001940732803698067</v>
-      </c>
-      <c r="F4">
-        <v>0.006445145496035504</v>
-      </c>
-      <c r="G4">
-        <v>0.009308128763128381</v>
-      </c>
-      <c r="H4">
-        <v>0.0103619254853543</v>
-      </c>
-      <c r="I4">
-        <v>0.01674149741680762</v>
-      </c>
-      <c r="J4">
-        <v>0.01910109793867779</v>
-      </c>
-      <c r="K4">
-        <v>0.05152123688257936</v>
-      </c>
-      <c r="L4">
-        <v>0.05360607162144525</v>
-      </c>
-      <c r="M4">
-        <v>0.08805806676909476</v>
-      </c>
-      <c r="N4">
-        <v>0.1392087661760951</v>
-      </c>
-      <c r="O4">
-        <v>0.1495129219878825</v>
-      </c>
-      <c r="P4">
-        <v>0.149787558541831</v>
-      </c>
-      <c r="Q4">
-        <v>0.1607474456608566</v>
-      </c>
-      <c r="R4">
-        <v>0.1864439511793904</v>
-      </c>
-      <c r="S4">
-        <v>0.2371046320484277</v>
-      </c>
-      <c r="T4">
-        <v>0.3136454787881995</v>
-      </c>
-      <c r="U4">
-        <v>0.350323021695703</v>
-      </c>
-      <c r="V4">
-        <v>0.3533561298387738</v>
-      </c>
-      <c r="W4">
-        <v>0.4287024650870618</v>
-      </c>
-      <c r="X4">
-        <v>0.5324866685091458</v>
-      </c>
-      <c r="Y4">
-        <v>0.6066860715548101</v>
-      </c>
-      <c r="Z4">
-        <v>0.6503409314499256</v>
-      </c>
-      <c r="AA4">
-        <v>0.6633814227681062</v>
-      </c>
-      <c r="AB4">
-        <v>0.6634409763791991</v>
-      </c>
-      <c r="AC4">
-        <v>0.669884195877596</v>
-      </c>
-      <c r="AD4">
-        <v>0.6767598116519322</v>
-      </c>
-      <c r="AE4">
-        <v>0.6953768581045385</v>
-      </c>
-      <c r="AF4">
-        <v>0.7537183047424661</v>
-      </c>
-      <c r="AG4">
-        <v>0.8590031776632484</v>
-      </c>
-      <c r="AH4">
-        <v>0.9552748252380046</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.003141907092772465</v>
-      </c>
-      <c r="E5">
-        <v>0.005422409958279696</v>
-      </c>
-      <c r="F5">
-        <v>0.008901450856976816</v>
-      </c>
-      <c r="G5">
-        <v>0.01189967379156415</v>
-      </c>
-      <c r="H5">
-        <v>0.01194755340911184</v>
-      </c>
-      <c r="I5">
-        <v>0.01386545466085728</v>
-      </c>
-      <c r="J5">
-        <v>0.02250644963319019</v>
-      </c>
-      <c r="K5">
-        <v>0.02357951375750771</v>
-      </c>
-      <c r="L5">
-        <v>0.03409697880934141</v>
-      </c>
-      <c r="M5">
-        <v>0.06910437592275696</v>
-      </c>
-      <c r="N5">
-        <v>0.1063274709174929</v>
-      </c>
-      <c r="O5">
-        <v>0.1098839630546131</v>
-      </c>
-      <c r="P5">
-        <v>0.1218341101735453</v>
-      </c>
-      <c r="Q5">
-        <v>0.1619438640572989</v>
-      </c>
-      <c r="R5">
-        <v>0.1997558945221726</v>
-      </c>
-      <c r="S5">
-        <v>0.2613562995654085</v>
-      </c>
-      <c r="T5">
-        <v>0.3173263065437429</v>
-      </c>
-      <c r="U5">
-        <v>0.3213238113492468</v>
-      </c>
-      <c r="V5">
-        <v>0.3415285948575117</v>
-      </c>
-      <c r="W5">
-        <v>0.4101455971052568</v>
-      </c>
-      <c r="X5">
-        <v>0.4987065622615695</v>
-      </c>
-      <c r="Y5">
-        <v>0.5817886668710905</v>
-      </c>
-      <c r="Z5">
-        <v>0.6303937301223703</v>
-      </c>
-      <c r="AA5">
-        <v>0.6385770804361848</v>
-      </c>
-      <c r="AB5">
-        <v>0.6391540393292932</v>
-      </c>
-      <c r="AC5">
-        <v>0.6476757715368764</v>
-      </c>
-      <c r="AD5">
-        <v>0.6725498787863405</v>
-      </c>
-      <c r="AE5">
-        <v>0.7174934696547183</v>
-      </c>
-      <c r="AF5">
-        <v>0.7881455109940367</v>
-      </c>
-      <c r="AG5">
-        <v>0.8777622226170723</v>
-      </c>
-      <c r="AH5">
-        <v>0.9597575361211426</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.001248433495616025</v>
-      </c>
-      <c r="J6">
-        <v>0.002703007731197361</v>
-      </c>
-      <c r="K6">
-        <v>0.007121126498172132</v>
-      </c>
-      <c r="L6">
-        <v>0.02288356228147278</v>
-      </c>
-      <c r="M6">
-        <v>0.03147079477769593</v>
-      </c>
-      <c r="N6">
-        <v>0.05233820394915052</v>
-      </c>
-      <c r="O6">
-        <v>0.05234973928792101</v>
-      </c>
-      <c r="P6">
-        <v>0.05565792961339448</v>
-      </c>
-      <c r="Q6">
-        <v>0.06451267415983621</v>
-      </c>
-      <c r="R6">
-        <v>0.06772430863656556</v>
-      </c>
-      <c r="S6">
-        <v>0.1113192589804727</v>
-      </c>
-      <c r="T6">
-        <v>0.1633300384062852</v>
-      </c>
-      <c r="U6">
-        <v>0.1939093590159335</v>
-      </c>
-      <c r="V6">
-        <v>0.1993337234120445</v>
-      </c>
-      <c r="W6">
-        <v>0.2580627516902743</v>
-      </c>
-      <c r="X6">
-        <v>0.306162540268656</v>
-      </c>
-      <c r="Y6">
-        <v>0.3463506290943792</v>
-      </c>
-      <c r="Z6">
-        <v>0.4224918247096874</v>
-      </c>
-      <c r="AA6">
-        <v>0.4494821547029302</v>
-      </c>
-      <c r="AB6">
-        <v>0.4551659273583606</v>
-      </c>
-      <c r="AC6">
-        <v>0.5087351090009254</v>
-      </c>
-      <c r="AD6">
-        <v>0.6111260062153374</v>
-      </c>
-      <c r="AE6">
-        <v>0.6931849069420641</v>
-      </c>
-      <c r="AF6">
-        <v>0.7320795815511146</v>
-      </c>
-      <c r="AG6">
-        <v>0.7433693987490236</v>
-      </c>
-      <c r="AH6">
-        <v>0.7433693987490236</v>
-      </c>
-      <c r="AI6">
-        <v>0.7588261792649602</v>
-      </c>
-      <c r="AJ6">
-        <v>0.7897963599695649</v>
-      </c>
-      <c r="AK6">
-        <v>0.8168161090590148</v>
-      </c>
-      <c r="AL6">
-        <v>0.8530889886936693</v>
-      </c>
-      <c r="AM6">
-        <v>0.9148991021210544</v>
-      </c>
-      <c r="AN6">
-        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2072,302 +4175,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0.01009573207300593</v>
+        <v>0.1454372446363446</v>
       </c>
       <c r="F2">
-        <v>0.5209244443602207</v>
+        <v>0.5232415801093111</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L2">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>0.01253168663434623</v>
+        <v>0.09580738638244413</v>
       </c>
       <c r="F3">
-        <v>0.5161131808553635</v>
+        <v>0.5972651843441961</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L3">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>0.0103619254853543</v>
+        <v>0.1040140494762258</v>
       </c>
       <c r="F4">
-        <v>0.5324866685091458</v>
+        <v>0.5232368264607562</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>0.01189967379156415</v>
+        <v>0.1143574064935599</v>
       </c>
       <c r="F5">
-        <v>0.5817886668710905</v>
+        <v>0.5150772922360648</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L5">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>0.02288356228147278</v>
+        <v>0.0898286837852921</v>
       </c>
       <c r="F6">
-        <v>0.5087351090009254</v>
+        <v>0.5524622652950629</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L6">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2385,302 +4473,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>0.01009573207300593</v>
+        <v>0.1454372446363446</v>
       </c>
       <c r="F2">
-        <v>0.7113168101877855</v>
+        <v>0.7333618759388372</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L2">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>0.01253168663434623</v>
+        <v>0.09580738638244413</v>
       </c>
       <c r="F3">
-        <v>0.7018985873322394</v>
+        <v>0.7285286575654404</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L3">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>0.0103619254853543</v>
+        <v>0.1040140494762258</v>
       </c>
       <c r="F4">
-        <v>0.7537183047424661</v>
+        <v>0.7213826240537721</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E5">
-        <v>0.01189967379156415</v>
+        <v>0.1143574064935599</v>
       </c>
       <c r="F5">
-        <v>0.7174934696547183</v>
+        <v>0.7152395692226954</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L5">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E6">
-        <v>0.02288356228147278</v>
+        <v>0.0898286837852921</v>
       </c>
       <c r="F6">
-        <v>0.7320795815511146</v>
+        <v>0.7343868254111402</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L6">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2698,122 +4771,119 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>0.01009573207300593</v>
+        <v>0.1454372446363446</v>
       </c>
       <c r="F2">
-        <v>0.8141886466111908</v>
+        <v>0.8313804306633029</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L2">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>0.01253168663434623</v>
+        <v>0.09580738638244413</v>
       </c>
       <c r="F3">
-        <v>0.8181940516837257</v>
+        <v>0.8260812725927354</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -2822,178 +4892,166 @@
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L3">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E4">
-        <v>0.0103619254853543</v>
+        <v>0.1040140494762258</v>
       </c>
       <c r="F4">
-        <v>0.8590031776632484</v>
+        <v>0.8595329353275004</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>0.01189967379156415</v>
+        <v>0.1143574064935599</v>
       </c>
       <c r="F5">
-        <v>0.8777622226170723</v>
+        <v>0.8042899316341474</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L5">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="E6">
-        <v>0.02288356228147278</v>
+        <v>0.0898286837852921</v>
       </c>
       <c r="F6">
-        <v>0.8168161090590148</v>
+        <v>0.80332152418178</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L6">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3011,72 +5069,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>0.01009573207300593</v>
+        <v>0.1454372446363446</v>
       </c>
       <c r="F2">
-        <v>0.902028743946913</v>
+        <v>0.9137130808107844</v>
       </c>
       <c r="G2">
         <v>26</v>
@@ -3085,148 +5143,139 @@
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L2">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.01253168663434623</v>
+        <v>0.09580738638244413</v>
       </c>
       <c r="F3">
-        <v>0.9205216866447532</v>
+        <v>0.9312907877060339</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L3">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>0.0103619254853543</v>
+        <v>0.1040140494762258</v>
       </c>
       <c r="F4">
-        <v>0.9552748252380046</v>
+        <v>0.9091196479556327</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="E5">
-        <v>0.01189967379156415</v>
+        <v>0.1143574064935599</v>
       </c>
       <c r="F5">
-        <v>0.9597575361211426</v>
+        <v>0.958324487908249</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -3235,78 +5284,72 @@
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L5">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E6">
-        <v>0.02288356228147278</v>
+        <v>0.0898286837852921</v>
       </c>
       <c r="F6">
-        <v>0.9148991021210544</v>
+        <v>0.9209740116572745</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L6">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
